--- a/Database/keygames.xlsx
+++ b/Database/keygames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P2Term2\DatabaseSystem\Database\NowGaming\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EA603D-7C40-4EC3-B714-BD7526B4A4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909688D2-FA44-46BC-840F-EA7D032D6A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6476031-2068-4B69-93BF-F051F054DAF4}"/>
   </bookViews>
@@ -1387,7 +1387,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
